--- a/Team-Data/2013-14/11-18-2013-14.xlsx
+++ b/Team-Data/2013-14/11-18-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,31 +811,31 @@
         <v>4.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
         <v>11</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM2" t="n">
         <v>9</v>
@@ -777,25 +844,25 @@
         <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -941,13 +1008,13 @@
         <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
@@ -956,37 +1023,37 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU3" t="n">
         <v>28</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>15</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -998,7 +1065,7 @@
         <v>22</v>
       </c>
       <c r="BB3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -1030,160 +1097,160 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="H4" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I4" t="n">
-        <v>35.2</v>
+        <v>35.7</v>
       </c>
       <c r="J4" t="n">
-        <v>82</v>
+        <v>81.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.429</v>
+        <v>0.437</v>
       </c>
       <c r="L4" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="M4" t="n">
-        <v>17.2</v>
+        <v>17.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="O4" t="n">
-        <v>21.1</v>
+        <v>19.8</v>
       </c>
       <c r="P4" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.756</v>
+        <v>0.73</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
-        <v>31.7</v>
+        <v>32.3</v>
       </c>
       <c r="T4" t="n">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="U4" t="n">
-        <v>19.8</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>15.2</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.6</v>
+        <v>25.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.3</v>
+        <v>-4.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
         <v>5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU4" t="n">
         <v>17</v>
       </c>
-      <c r="AS4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX4" t="n">
         <v>21</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB4" t="n">
         <v>19</v>
       </c>
       <c r="BC4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -1212,94 +1279,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.455</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.398</v>
+        <v>0.402</v>
       </c>
       <c r="L5" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.306</v>
+        <v>0.293</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>20.9</v>
       </c>
       <c r="P5" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.707</v>
+        <v>0.718</v>
       </c>
       <c r="R5" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T5" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U5" t="n">
-        <v>18.9</v>
+        <v>18.3</v>
       </c>
       <c r="V5" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>22.9</v>
+        <v>23.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>88.5</v>
+        <v>89.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="n">
         <v>14</v>
       </c>
-      <c r="AF5" t="n">
-        <v>15</v>
-      </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>14</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1323,16 +1390,16 @@
         <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AP5" t="n">
         <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS5" t="n">
         <v>20</v>
@@ -1341,31 +1408,31 @@
         <v>20</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>3</v>
       </c>
       <c r="AW5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>8</v>
       </c>
       <c r="BA5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -1394,106 +1461,106 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.667</v>
+        <v>0.625</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>34.3</v>
+        <v>35.3</v>
       </c>
       <c r="J6" t="n">
-        <v>79.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.433</v>
+        <v>0.441</v>
       </c>
       <c r="L6" t="n">
         <v>5.4</v>
       </c>
       <c r="M6" t="n">
-        <v>15.8</v>
+        <v>16.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.345</v>
+        <v>0.331</v>
       </c>
       <c r="O6" t="n">
-        <v>19.9</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.84</v>
+        <v>0.841</v>
       </c>
       <c r="R6" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>34.1</v>
+        <v>32.8</v>
       </c>
       <c r="T6" t="n">
-        <v>45.9</v>
+        <v>44.9</v>
       </c>
       <c r="U6" t="n">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="W6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.1</v>
       </c>
-      <c r="X6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>7.2</v>
-      </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="n">
         <v>5</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>4</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>14</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
         <v>27</v>
@@ -1502,52 +1569,52 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW6" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
         <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BC6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-7</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1669,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>8</v>
@@ -1681,19 +1748,19 @@
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
@@ -1705,22 +1772,22 @@
         <v>16</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
         <v>19</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
         <v>20</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -1758,112 +1825,112 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="J8" t="n">
-        <v>84</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466</v>
+        <v>0.469</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.391</v>
+        <v>0.401</v>
       </c>
       <c r="O8" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="P8" t="n">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.802</v>
+        <v>0.806</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>31.5</v>
+        <v>30.3</v>
       </c>
       <c r="T8" t="n">
-        <v>42</v>
+        <v>40.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="V8" t="n">
-        <v>16.9</v>
+        <v>16.5</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="X8" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="Y8" t="n">
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.7</v>
+        <v>106.6</v>
       </c>
       <c r="AC8" t="n">
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>14</v>
       </c>
       <c r="AI8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
         <v>6</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>5</v>
       </c>
       <c r="AM8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN8" t="n">
         <v>7</v>
@@ -1875,40 +1942,40 @@
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR8" t="n">
         <v>21</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AY8" t="n">
         <v>6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BB8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
-        <v>88.59999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.441</v>
+        <v>0.437</v>
       </c>
       <c r="L9" t="n">
         <v>7.6</v>
       </c>
       <c r="M9" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.373</v>
+        <v>0.376</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.71</v>
+        <v>0.735</v>
       </c>
       <c r="R9" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="S9" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="T9" t="n">
-        <v>46.7</v>
+        <v>46.9</v>
       </c>
       <c r="U9" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="V9" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W9" t="n">
         <v>6.6</v>
@@ -2003,43 +2070,43 @@
         <v>6.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.4</v>
+        <v>103.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
         <v>14</v>
@@ -2048,25 +2115,25 @@
         <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>15</v>
@@ -2075,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="AW9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2090,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
@@ -2218,25 +2285,25 @@
         <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
         <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
         <v>14</v>
       </c>
       <c r="AN10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2248,28 +2315,28 @@
         <v>30</v>
       </c>
       <c r="AT10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU10" t="n">
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX10" t="n">
         <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA10" t="n">
         <v>12</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>13</v>
       </c>
       <c r="BB10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.727</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>39.1</v>
+        <v>39.8</v>
       </c>
       <c r="J11" t="n">
-        <v>80.5</v>
+        <v>80.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.485</v>
+        <v>0.493</v>
       </c>
       <c r="L11" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="M11" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.46</v>
+        <v>0.453</v>
       </c>
       <c r="O11" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="P11" t="n">
-        <v>20.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.724</v>
+        <v>0.722</v>
       </c>
       <c r="R11" t="n">
-        <v>9.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>33.4</v>
       </c>
       <c r="T11" t="n">
-        <v>43.5</v>
+        <v>42.2</v>
       </c>
       <c r="U11" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="V11" t="n">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="W11" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X11" t="n">
         <v>5.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="AA11" t="n">
         <v>20.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>104.3</v>
+        <v>104.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>4</v>
@@ -2397,10 +2464,10 @@
         <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
         <v>2</v>
@@ -2409,52 +2476,52 @@
         <v>1</v>
       </c>
       <c r="AM11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>22</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>21</v>
       </c>
       <c r="AR11" t="n">
         <v>27</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AT11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AU11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW11" t="n">
         <v>9</v>
       </c>
       <c r="AX11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA11" t="n">
         <v>16</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>2.5</v>
       </c>
       <c r="AD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="n">
         <v>4</v>
       </c>
-      <c r="AE12" t="n">
-        <v>5</v>
-      </c>
       <c r="AF12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG12" t="n">
         <v>8</v>
@@ -2579,13 +2646,13 @@
         <v>2</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2630,7 +2697,7 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2761,7 +2828,7 @@
         <v>14</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>29</v>
@@ -2773,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN13" t="n">
         <v>12</v>
@@ -2782,7 +2849,7 @@
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>8</v>
@@ -2791,16 +2858,16 @@
         <v>25</v>
       </c>
       <c r="AS13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -2850,127 +2917,127 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.636</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>40.4</v>
       </c>
       <c r="J14" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.486</v>
       </c>
       <c r="L14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M14" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O14" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="P14" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.725</v>
+        <v>0.712</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U14" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="V14" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="W14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="X14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z14" t="n">
         <v>24.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.3</v>
+        <v>110</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="AD14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE14" t="n">
         <v>4</v>
       </c>
-      <c r="AE14" t="n">
-        <v>5</v>
-      </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>14</v>
       </c>
       <c r="AI14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AS14" t="n">
         <v>17</v>
@@ -2979,22 +3046,22 @@
         <v>11</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
         <v>3</v>
       </c>
       <c r="AZ14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -3113,13 +3180,13 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
         <v>14</v>
@@ -3143,28 +3210,28 @@
         <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ15" t="n">
         <v>26</v>
       </c>
       <c r="AR15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3173,10 +3240,10 @@
         <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
         <v>29</v>
@@ -3185,7 +3252,7 @@
         <v>16</v>
       </c>
       <c r="BC15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -3214,88 +3281,88 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.545</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J16" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L16" t="n">
         <v>4.6</v>
       </c>
       <c r="M16" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.321</v>
+        <v>0.313</v>
       </c>
       <c r="O16" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="P16" t="n">
-        <v>20.9</v>
+        <v>20</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="T16" t="n">
-        <v>41.9</v>
+        <v>41.4</v>
       </c>
       <c r="U16" t="n">
         <v>23.4</v>
       </c>
       <c r="V16" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="W16" t="n">
         <v>6.7</v>
       </c>
       <c r="X16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.8</v>
+        <v>-2.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -3304,7 +3371,7 @@
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>17</v>
@@ -3313,7 +3380,7 @@
         <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>9</v>
@@ -3337,16 +3404,16 @@
         <v>26</v>
       </c>
       <c r="AS16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
         <v>15</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>13</v>
       </c>
       <c r="AW16" t="n">
         <v>25</v>
@@ -3358,13 +3425,13 @@
         <v>18</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>14</v>
@@ -3507,13 +3574,13 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
         <v>7</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,10 +3592,10 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
@@ -3537,7 +3604,7 @@
         <v>15</v>
       </c>
       <c r="AY17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
@@ -3546,7 +3613,7 @@
         <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -3671,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="AI18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
         <v>24</v>
@@ -3683,19 +3750,19 @@
         <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
         <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR18" t="n">
         <v>22</v>
@@ -3707,10 +3774,10 @@
         <v>27</v>
       </c>
       <c r="AU18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -3838,22 +3905,22 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE19" t="n">
         <v>4</v>
       </c>
-      <c r="AE19" t="n">
-        <v>5</v>
-      </c>
       <c r="AF19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG19" t="n">
         <v>8</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3883,13 +3950,13 @@
         <v>7</v>
       </c>
       <c r="AS19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AT19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV19" t="n">
         <v>12</v>
@@ -3907,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="BA19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>18</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>14</v>
@@ -4038,13 +4105,13 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM20" t="n">
         <v>30</v>
@@ -4053,10 +4120,10 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ20" t="n">
         <v>6</v>
@@ -4068,13 +4135,13 @@
         <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
         <v>4</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-5.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>24</v>
@@ -4241,7 +4308,7 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>14</v>
@@ -4262,10 +4329,10 @@
         <v>13</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -4306,115 +4373,115 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>0.667</v>
       </c>
       <c r="H22" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I22" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J22" t="n">
-        <v>82.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.441</v>
+        <v>0.446</v>
       </c>
       <c r="L22" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.325</v>
+        <v>0.301</v>
       </c>
       <c r="O22" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="P22" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.822</v>
+        <v>0.823</v>
       </c>
       <c r="R22" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="S22" t="n">
         <v>34</v>
       </c>
       <c r="T22" t="n">
-        <v>46.9</v>
+        <v>46.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="V22" t="n">
-        <v>16.8</v>
+        <v>17.3</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="X22" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
         <v>22.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.2</v>
+        <v>103</v>
       </c>
       <c r="AC22" t="n">
         <v>2.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>4</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>18</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AM22" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4426,37 +4493,37 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS22" t="n">
         <v>5</v>
       </c>
-      <c r="AS22" t="n">
-        <v>7</v>
-      </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>18</v>
       </c>
-      <c r="AV22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>21</v>
-      </c>
       <c r="BA22" t="n">
         <v>10</v>
       </c>
       <c r="BB22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>0.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>18</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
@@ -4587,16 +4654,16 @@
         <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>15</v>
       </c>
       <c r="AM23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
         <v>25</v>
@@ -4605,16 +4672,16 @@
         <v>19</v>
       </c>
       <c r="AQ23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS23" t="n">
         <v>4</v>
       </c>
       <c r="AT23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU23" t="n">
         <v>16</v>
@@ -4623,10 +4690,10 @@
         <v>27</v>
       </c>
       <c r="AW23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -4670,106 +4737,106 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>0.417</v>
+        <v>0.455</v>
       </c>
       <c r="H24" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="I24" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="J24" t="n">
-        <v>88.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="K24" t="n">
-        <v>0.45</v>
+        <v>0.457</v>
       </c>
       <c r="L24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M24" t="n">
         <v>21.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.335</v>
+        <v>0.339</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="P24" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.711</v>
+        <v>0.725</v>
       </c>
       <c r="R24" t="n">
-        <v>11.3</v>
+        <v>10.7</v>
       </c>
       <c r="S24" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T24" t="n">
-        <v>44.8</v>
+        <v>44.1</v>
       </c>
       <c r="U24" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V24" t="n">
-        <v>17.3</v>
+        <v>17.7</v>
       </c>
       <c r="W24" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>4.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="AA24" t="n">
         <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>103.7</v>
+        <v>104.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>-6.3</v>
+        <v>-6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>17</v>
@@ -4778,49 +4845,49 @@
         <v>13</v>
       </c>
       <c r="AN24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
         <v>17</v>
       </c>
       <c r="AP24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW24" t="n">
         <v>14</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>12</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA24" t="n">
         <v>20</v>
       </c>
       <c r="BB24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC24" t="n">
         <v>27</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4948,7 +5015,7 @@
         <v>16</v>
       </c>
       <c r="AJ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
         <v>11</v>
@@ -4963,10 +5030,10 @@
         <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
@@ -4975,16 +5042,16 @@
         <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
       </c>
       <c r="AV25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -4999,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -5034,88 +5101,88 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J26" t="n">
-        <v>85.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
       <c r="O26" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P26" t="n">
         <v>20.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.772</v>
+        <v>0.763</v>
       </c>
       <c r="R26" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="S26" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="T26" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U26" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="V26" t="n">
         <v>14.9</v>
       </c>
       <c r="W26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>104.9</v>
+        <v>104.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF26" t="n">
         <v>3</v>
@@ -5124,16 +5191,16 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
@@ -5145,49 +5212,49 @@
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS26" t="n">
         <v>14</v>
       </c>
       <c r="AT26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV26" t="n">
         <v>8</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>10</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-4.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
@@ -5309,7 +5376,7 @@
         <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ27" t="n">
         <v>14</v>
@@ -5324,22 +5391,22 @@
         <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
         <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT27" t="n">
         <v>28</v>
@@ -5369,7 +5436,7 @@
         <v>26</v>
       </c>
       <c r="BC27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5491,10 +5558,10 @@
         <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5503,10 +5570,10 @@
         <v>15</v>
       </c>
       <c r="AM28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
@@ -5533,10 +5600,10 @@
         <v>6</v>
       </c>
       <c r="AW28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-0.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>18</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
         <v>21</v>
@@ -5673,10 +5740,10 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>25</v>
@@ -5688,46 +5755,46 @@
         <v>17</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR29" t="n">
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU29" t="n">
         <v>30</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -5762,85 +5829,85 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>0.083</v>
+        <v>0.091</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.412</v>
+        <v>0.413</v>
       </c>
       <c r="L30" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.29</v>
+        <v>0.276</v>
       </c>
       <c r="O30" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P30" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.709</v>
+        <v>0.7</v>
       </c>
       <c r="R30" t="n">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="S30" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="T30" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U30" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="V30" t="n">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="W30" t="n">
         <v>7.4</v>
       </c>
       <c r="X30" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.3</v>
+        <v>22.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>88.59999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="AC30" t="n">
         <v>-11.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>30</v>
@@ -5855,10 +5922,10 @@
         <v>14</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
         <v>28</v>
@@ -5870,49 +5937,49 @@
         <v>24</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO30" t="n">
         <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>29</v>
       </c>
       <c r="AV30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW30" t="n">
         <v>19</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-4.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
         <v>27</v>
@@ -6070,7 +6137,7 @@
         <v>23</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6082,7 +6149,7 @@
         <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
         <v>12</v>
@@ -6091,7 +6158,7 @@
         <v>7</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-18-2013-14</t>
+          <t>2013-11-18</t>
         </is>
       </c>
     </row>
